--- a/Files/college_info/all_colleges/KUCE/KUCE_placements.xlsx
+++ b/Files/college_info/all_colleges/KUCE/KUCE_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\KUCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF0714EB-B126-4B92-8EF7-BDF486928419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB085C2-5AE1-4FE5-A25C-5953716BD133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CDA94E9-A828-4462-97E3-29237161840A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Arcelor Nippon Steel India Company</t>
+  </si>
+  <si>
+    <t>TCS-2</t>
+  </si>
+  <si>
+    <t>WIPRO-2</t>
+  </si>
+  <si>
+    <t>TCS-3</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -467,7 +487,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -507,7 +527,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -521,7 +541,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -535,7 +555,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -549,10 +569,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>3.5</v>
@@ -563,10 +583,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>3.5</v>
@@ -591,10 +611,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>3.36</v>
@@ -609,6 +629,9 @@
       <sortCondition descending="1" ref="C1:C9"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>